--- a/设计文档/表格/Profession.xlsx
+++ b/设计文档/表格/Profession.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="19305" yWindow="390" windowWidth="13845" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -26,14 +26,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>骑士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MinHP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -97,23 +89,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseWp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MinMdef</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MaxMdef</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗贼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸟人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重装骑士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣兵</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -493,22 +497,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="18" width="9" style="2"/>
-    <col min="19" max="19" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="2"/>
+    <col min="1" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +523,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -558,90 +565,352 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>40000</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="L2" s="2">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2">
+        <v>8</v>
+      </c>
+      <c r="P2" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>40001</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2">
+        <v>6</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2">
+        <v>5</v>
+      </c>
+      <c r="P3" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2</v>
+      </c>
+      <c r="R3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>40002</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2">
+        <v>8</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>4</v>
+      </c>
+      <c r="R4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>40003</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
         <v>15</v>
       </c>
-      <c r="F2" s="2">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="D5" s="2">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>5</v>
+      </c>
+      <c r="R5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>40004</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="J2" s="2">
-        <v>2</v>
-      </c>
-      <c r="K2" s="2">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2</v>
+      </c>
+      <c r="O6" s="2">
+        <v>4</v>
+      </c>
+      <c r="P6" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>40005</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
         <v>20</v>
       </c>
-      <c r="M2" s="2">
-        <v>4</v>
-      </c>
-      <c r="N2" s="2">
-        <v>8</v>
-      </c>
-      <c r="O2" s="2">
-        <v>4</v>
-      </c>
-      <c r="P2" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>5</v>
-      </c>
-      <c r="R2" s="2">
-        <v>8</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2">
-        <v>3</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>19</v>
+      <c r="J7" s="2">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>7</v>
+      </c>
+      <c r="L7" s="2">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2">
+        <v>4</v>
+      </c>
+      <c r="N7" s="2">
+        <v>4</v>
+      </c>
+      <c r="O7" s="2">
+        <v>2</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
